--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11245.97563798853</v>
+        <v>2237949.151959719</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11245.97563798853</v>
+        <v>2237949.151959719</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39751.39231569919</v>
+        <v>2474286.955939312</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39751.39231569919</v>
+        <v>2474286.955939312</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418684214.376956</v>
+        <v>56008024.49362742</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12915.97231754349</v>
+        <v>1291823.399174178</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25091.84207190378</v>
+        <v>2456747.161481827</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37267.71182626404</v>
+        <v>3621670.923789478</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50735.27584717123</v>
+        <v>4716604.468116987</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64190.13628334385</v>
+        <v>5812068.603544497</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77644.99671951648</v>
+        <v>6907532.738972004</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91263.78442841639</v>
+        <v>8008796.25702577</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104942.5204201446</v>
+        <v>9107412.230837112</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118164.2237928681</v>
+        <v>10184804.41958857</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131455.9817531692</v>
+        <v>11279737.96391607</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144747.7397134704</v>
+        <v>12374671.50824357</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>158039.4976737715</v>
+        <v>13469605.05257109</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>171331.2556340727</v>
+        <v>14564538.59689861</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>184832.1718905998</v>
+        <v>15636458.0227684</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>198335.0841579275</v>
+        <v>16671906.10303627</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>215</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>92</v>
